--- a/model/results/mix1_ggpos_h2pos/v_sec.xlsx
+++ b/model/results/mix1_ggpos_h2pos/v_sec.xlsx
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777782</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1635,7 +1635,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D10" t="n">
         <v>1.643081972789115</v>
@@ -1745,7 +1745,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D15" t="n">
         <v>1.643081972789115</v>
@@ -1767,7 +1767,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D16" t="n">
         <v>1.643081972789115</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="17">
@@ -1789,7 +1789,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D17" t="n">
         <v>1.643081972789115</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="18">
@@ -1877,7 +1877,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D21" t="n">
         <v>1.643081972789115</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="22">
@@ -1943,7 +1943,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D24" t="n">
         <v>1.643081972789115</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="25">
@@ -1965,7 +1965,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D25" t="n">
         <v>1.643081972789115</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="26">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981499</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788798</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224486122</v>
       </c>
     </row>
     <row r="30">
@@ -2072,19 +2072,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965966802</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787842</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.39715612244751</v>
       </c>
     </row>
     <row r="31">
@@ -2097,7 +2097,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D31" t="n">
         <v>1.643081972789115</v>
@@ -2182,19 +2182,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -2204,19 +2204,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -2270,19 +2270,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -2292,19 +2292,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -2336,19 +2336,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -2358,19 +2358,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777782</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="23">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="27">
@@ -3020,19 +3020,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981499</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788798</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224486122</v>
       </c>
     </row>
     <row r="30">
@@ -3042,19 +3042,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965966802</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787842</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.39715612244751</v>
       </c>
     </row>
     <row r="31">
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000022</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3487,16 +3487,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777782</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="23">
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="27">
@@ -3990,19 +3990,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981499</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788797</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224486122</v>
       </c>
     </row>
     <row r="30">
@@ -4012,19 +4012,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965966802</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787842</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.39715612244751</v>
       </c>
     </row>
     <row r="31">
@@ -4122,19 +4122,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -4144,19 +4144,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -4210,19 +4210,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -4232,19 +4232,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -4276,19 +4276,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -4298,19 +4298,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -4372,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000018</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4394,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777816</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
-        <v>1.221696913468974e-14</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>4.074999999999998</v>
@@ -4435,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4457,16 +4457,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777782</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -4960,19 +4960,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981499</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788797</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224486122</v>
       </c>
     </row>
     <row r="30">
@@ -4982,19 +4982,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965966802</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787842</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.39715612244751</v>
       </c>
     </row>
     <row r="31">
@@ -5092,19 +5092,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -5114,19 +5114,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -5180,19 +5180,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -5202,19 +5202,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -5246,19 +5246,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -5268,19 +5268,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -5364,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5386,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777789</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000001</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5405,16 +5405,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -5427,16 +5427,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777782</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -5515,7 +5515,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D10" t="n">
         <v>1.643081972789115</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="11">
@@ -5537,7 +5537,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D11" t="n">
         <v>1.643081972789115</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="12">
@@ -5559,7 +5559,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D12" t="n">
         <v>1.643081972789115</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="13">
@@ -5581,7 +5581,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D13" t="n">
         <v>1.643081972789115</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="14">
@@ -5625,7 +5625,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D15" t="n">
         <v>1.643081972789115</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="16">
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="17">
@@ -5669,7 +5669,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D17" t="n">
         <v>1.643081972789115</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="18">
@@ -5691,7 +5691,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D18" t="n">
         <v>1.643081972789115</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="19">
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D20" t="n">
         <v>1.643081972789115</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="21">
@@ -5757,7 +5757,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D21" t="n">
         <v>1.643081972789115</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="22">
@@ -5782,13 +5782,13 @@
         <v>0.01687414965986394</v>
       </c>
       <c r="D22" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972789117</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="23">
@@ -5801,7 +5801,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D23" t="n">
         <v>1.643081972789115</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="24">
@@ -5823,7 +5823,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D24" t="n">
         <v>1.643081972789115</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="25">
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="26">
@@ -5930,19 +5930,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.016874149659864</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788491</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224488696</v>
       </c>
     </row>
     <row r="30">
@@ -5952,19 +5952,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972786617</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224485389</v>
       </c>
     </row>
     <row r="31">
@@ -5977,7 +5977,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D31" t="n">
         <v>1.643081972789115</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="32">
@@ -5999,7 +5999,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D32" t="n">
         <v>1.643081972789115</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="33">
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6356,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777788</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000001</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -6378,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777756</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999997</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666661</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222208</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="11">
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="12">
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="13">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="14">
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="16">
@@ -6617,7 +6617,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D16" t="n">
         <v>1.643081972789115</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="17">
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="18">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="19">
@@ -6683,7 +6683,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D19" t="n">
         <v>1.643081972789115</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="20">
@@ -6705,7 +6705,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D20" t="n">
         <v>1.643081972789115</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="21">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="22">
@@ -6749,7 +6749,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D22" t="n">
         <v>1.643081972789115</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="23">
@@ -6771,7 +6771,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D23" t="n">
         <v>1.643081972789115</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="24">
@@ -6815,7 +6815,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D25" t="n">
         <v>1.643081972789115</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="26">
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489793</v>
       </c>
     </row>
     <row r="28">
@@ -6900,19 +6900,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788491</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224488696</v>
       </c>
     </row>
     <row r="30">
@@ -6922,19 +6922,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965965922</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224474439</v>
       </c>
     </row>
     <row r="31">
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="32">
@@ -7032,19 +7032,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -7054,19 +7054,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7120,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -7142,19 +7142,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -7186,19 +7186,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -7208,19 +7208,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777788</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000001</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999998</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666661</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222207</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7455,7 +7455,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D10" t="n">
         <v>1.643081972789115</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="11">
@@ -7477,7 +7477,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D11" t="n">
         <v>1.643081972789115</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="12">
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="13">
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489793</v>
       </c>
     </row>
     <row r="15">
@@ -7565,7 +7565,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D15" t="n">
         <v>1.643081972789115</v>
@@ -7587,7 +7587,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D16" t="n">
         <v>1.643081972789115</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="17">
@@ -7609,7 +7609,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D17" t="n">
         <v>1.643081972789115</v>
@@ -7653,7 +7653,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D19" t="n">
         <v>1.643081972789115</v>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="21">
@@ -7697,7 +7697,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D21" t="n">
         <v>1.643081972789115</v>
@@ -7719,7 +7719,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D22" t="n">
         <v>1.643081972789115</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="23">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="24">
@@ -7763,7 +7763,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D24" t="n">
         <v>1.643081972789115</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="25">
@@ -7785,7 +7785,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D25" t="n">
         <v>1.643081972789115</v>
@@ -7807,7 +7807,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D26" t="n">
         <v>1.643081972789115</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3971561224489801</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="27">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489793</v>
       </c>
     </row>
     <row r="28">
@@ -7870,19 +7870,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264794</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965981279</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788783</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224485957</v>
       </c>
     </row>
     <row r="30">
@@ -7892,19 +7892,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965965922</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224474439</v>
       </c>
     </row>
     <row r="31">
@@ -7917,7 +7917,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01687414965986397</v>
+        <v>0.01687414965986394</v>
       </c>
       <c r="D31" t="n">
         <v>1.643081972789115</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="33">
@@ -8002,19 +8002,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -8024,19 +8024,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -8090,19 +8090,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -8112,19 +8112,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -8156,19 +8156,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -8178,19 +8178,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -8252,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777812</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000035</v>
       </c>
     </row>
     <row r="3">
@@ -8274,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777788</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999998</v>
+        <v>4.075000000000032</v>
       </c>
     </row>
     <row r="4">
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777802</v>
+        <v>0.4527777777777788</v>
       </c>
       <c r="E4" t="n">
-        <v>8.498761137175473e-15</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.07500000000001</v>
+        <v>4.075000000000032</v>
       </c>
     </row>
     <row r="5">
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -8340,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666662</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.01097222222221</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="13">
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="14">
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="16">
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="21">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489794</v>
       </c>
     </row>
     <row r="24">
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.39715612244898</v>
+        <v>0.3971561224489793</v>
       </c>
     </row>
     <row r="28">
@@ -8840,19 +8840,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264794</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981279</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788783</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224485957</v>
       </c>
     </row>
     <row r="30">
@@ -8862,19 +8862,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965965922</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224474439</v>
       </c>
     </row>
     <row r="31">
@@ -8972,19 +8972,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -8994,19 +8994,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -9060,19 +9060,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -9082,19 +9082,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -9126,19 +9126,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -9148,19 +9148,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -9222,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -9244,13 +9244,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -9266,13 +9266,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777794</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999984</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -9310,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>1.290416666666659</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222205</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -9810,19 +9810,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264794</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981279</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788783</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224485957</v>
       </c>
     </row>
     <row r="30">
@@ -9832,19 +9832,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965965922</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224474439</v>
       </c>
     </row>
     <row r="31">
@@ -9942,19 +9942,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -9964,19 +9964,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -10030,19 +10030,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -10052,19 +10052,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -10096,19 +10096,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -10118,19 +10118,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -10192,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -10214,13 +10214,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777772</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999935</v>
       </c>
     </row>
     <row r="4">
@@ -10236,13 +10236,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777822</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E4" t="n">
-        <v>1.593517713220401e-14</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999977</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -10258,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -10280,13 +10280,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777779</v>
+        <v>1.290416666666659</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222204</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10365,7 +10365,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D10" t="n">
         <v>1.643081972789115</v>
@@ -10374,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="11">
@@ -10387,7 +10387,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D11" t="n">
         <v>1.643081972789115</v>
@@ -10409,7 +10409,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D12" t="n">
         <v>1.643081972789115</v>
@@ -10431,7 +10431,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D13" t="n">
         <v>1.643081972789115</v>
@@ -10453,7 +10453,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D14" t="n">
         <v>1.643081972789115</v>
@@ -10475,7 +10475,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D15" t="n">
         <v>1.643081972789115</v>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="16">
@@ -10497,7 +10497,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D16" t="n">
         <v>1.643081972789115</v>
@@ -10519,7 +10519,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D17" t="n">
         <v>1.643081972789115</v>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="18">
@@ -10541,7 +10541,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D18" t="n">
         <v>1.643081972789115</v>
@@ -10563,7 +10563,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D19" t="n">
         <v>1.643081972789115</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="20">
@@ -10585,7 +10585,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D20" t="n">
         <v>1.643081972789115</v>
@@ -10607,7 +10607,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D21" t="n">
         <v>1.643081972789115</v>
@@ -10629,7 +10629,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D22" t="n">
         <v>1.643081972789115</v>
@@ -10651,7 +10651,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D23" t="n">
         <v>1.643081972789115</v>
@@ -10673,7 +10673,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D24" t="n">
         <v>1.643081972789115</v>
@@ -10695,7 +10695,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D25" t="n">
         <v>1.643081972789115</v>
@@ -10717,7 +10717,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D26" t="n">
         <v>1.643081972789115</v>
@@ -10739,7 +10739,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D27" t="n">
         <v>1.643081972789115</v>
@@ -10761,7 +10761,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D28" t="n">
         <v>1.643081972789115</v>
@@ -10780,19 +10780,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788491</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224488696</v>
       </c>
     </row>
     <row r="30">
@@ -10802,19 +10802,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972786617</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224485389</v>
       </c>
     </row>
     <row r="31">
@@ -10827,7 +10827,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D31" t="n">
         <v>1.643081972789115</v>
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224489799</v>
       </c>
     </row>
     <row r="32">
@@ -10849,7 +10849,7 @@
         <v>1.371408163265306</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965986399</v>
       </c>
       <c r="D32" t="n">
         <v>1.643081972789115</v>
@@ -10912,19 +10912,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -10934,19 +10934,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -11000,19 +11000,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -11022,19 +11022,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -11066,19 +11066,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -11088,19 +11088,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5433333333333331</v>
       </c>
     </row>
     <row r="3">
@@ -11203,16 +11203,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.560069932748764</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3413426576998354</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5120139865497529</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -11225,16 +11225,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.512916666666666</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3350555555555556</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5025833333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -11750,19 +11750,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.503333333333333</v>
+        <v>1.503333333332928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1503333333333333</v>
+        <v>0.1503333333332929</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9771666666666666</v>
+        <v>0.9771666666664036</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1275</v>
+        <v>1.127499999999696</v>
       </c>
     </row>
     <row r="30">
@@ -11772,19 +11772,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.503333333333333</v>
+        <v>1.503333333331714</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1503333333333333</v>
+        <v>0.1503333333331714</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9771666666666666</v>
+        <v>0.9771666666656139</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1275</v>
+        <v>1.127499999998785</v>
       </c>
     </row>
     <row r="31">
@@ -12132,13 +12132,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -12154,13 +12154,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -12176,13 +12176,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777822</v>
+        <v>0.4527777777777814</v>
       </c>
       <c r="E4" t="n">
-        <v>1.593517713220401e-14</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999977</v>
+        <v>4.075000000000031</v>
       </c>
     </row>
     <row r="5">
@@ -12198,13 +12198,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -12220,13 +12220,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777779</v>
+        <v>1.290416666666659</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.010972222222203</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -12720,19 +12720,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264794</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981279</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788783</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224485957</v>
       </c>
     </row>
     <row r="30">
@@ -12742,19 +12742,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965965922</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224474439</v>
       </c>
     </row>
     <row r="31">
@@ -12852,19 +12852,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -12874,19 +12874,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -12940,19 +12940,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -12962,19 +12962,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -13006,19 +13006,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -13028,19 +13028,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5433333333333331</v>
       </c>
     </row>
     <row r="3">
@@ -13143,16 +13143,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.560069932748764</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3413426576998354</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5120139865497529</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -13165,16 +13165,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.512916666666666</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3350555555555556</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5025833333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -13690,19 +13690,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.503333333333333</v>
+        <v>1.503333333332928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1503333333333333</v>
+        <v>0.1503333333332929</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9771666666666666</v>
+        <v>0.9771666666664036</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1275</v>
+        <v>1.127499999999696</v>
       </c>
     </row>
     <row r="30">
@@ -13712,19 +13712,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.503333333333333</v>
+        <v>1.503333333331714</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1503333333333333</v>
+        <v>0.1503333333331714</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9771666666666666</v>
+        <v>0.9771666666656139</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1275</v>
+        <v>1.127499999998785</v>
       </c>
     </row>
     <row r="31">
@@ -14078,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5433333333333331</v>
       </c>
     </row>
     <row r="3">
@@ -14113,16 +14113,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.560069932748764</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3413426576998354</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5120139865497529</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -14135,16 +14135,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.512916666666666</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3350555555555556</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5025833333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -14660,19 +14660,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.503333333333333</v>
+        <v>1.503333333332928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1503333333333333</v>
+        <v>0.1503333333332929</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9771666666666666</v>
+        <v>0.9771666666664036</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1275</v>
+        <v>1.127499999999696</v>
       </c>
     </row>
     <row r="30">
@@ -14682,19 +14682,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.503333333333333</v>
+        <v>1.503333333331714</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1503333333333333</v>
+        <v>0.1503333333331714</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9771666666666666</v>
+        <v>0.9771666666656139</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1275</v>
+        <v>1.127499999998785</v>
       </c>
     </row>
     <row r="31">
@@ -15042,7 +15042,7 @@
         <v>3.395833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -15061,16 +15061,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.063164553943246</v>
+        <v>3.315488130544986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4084219405257662</v>
+        <v>0.4420650840726648</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6126329107886493</v>
+        <v>0.6630976261089971</v>
       </c>
     </row>
     <row r="4">
@@ -15083,16 +15083,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.239236599415432</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4318982132553909</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6478473198830863</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -15105,16 +15105,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.512916666666666</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3350555555555556</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5025833333333333</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.512916666666666</v>
+        <v>2.512916666666664</v>
       </c>
       <c r="D6" t="n">
         <v>0.3350555555555556</v>
@@ -15630,19 +15630,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.202666666666667</v>
+        <v>1.202666666666343</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.5334</v>
+        <v>1.533399999999587</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.270599999999927</v>
       </c>
     </row>
     <row r="30">
@@ -15652,19 +15652,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.202666666666667</v>
+        <v>1.202666666665371</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.5334</v>
+        <v>1.533399999998348</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999997084</v>
       </c>
     </row>
     <row r="31">
@@ -15762,19 +15762,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="36">
@@ -15784,19 +15784,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="37">
@@ -15850,19 +15850,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="40">
@@ -15872,19 +15872,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="41">
@@ -15894,19 +15894,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C41" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="42">
@@ -15916,19 +15916,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="43">
@@ -15938,19 +15938,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
   </sheetData>
@@ -16012,7 +16012,7 @@
         <v>3.395833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -16034,13 +16034,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -16053,16 +16053,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.239236599415432</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4318982132553909</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6478473198830863</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -16075,16 +16075,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -16097,16 +16097,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333336</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111116</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666673</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -16600,19 +16600,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.202666666666667</v>
+        <v>1.202666666666343</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.5334</v>
+        <v>1.533399999999587</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999999271</v>
       </c>
     </row>
     <row r="30">
@@ -16622,19 +16622,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.202666666666667</v>
+        <v>1.202666666665371</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.5334</v>
+        <v>1.533399999998348</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999997084</v>
       </c>
     </row>
     <row r="31">
@@ -16979,16 +16979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="3">
@@ -17004,13 +17004,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -17023,16 +17023,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.239236599415432</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4318982132553909</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6478473198830863</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -17045,16 +17045,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -17067,16 +17067,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333336</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111116</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666673</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -17570,19 +17570,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.202666666666667</v>
+        <v>1.202666666666343</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.5334</v>
+        <v>1.533399999999587</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.270599999999927</v>
       </c>
     </row>
     <row r="30">
@@ -17592,19 +17592,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.202666666666667</v>
+        <v>1.202666666665371</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.5334</v>
+        <v>1.533399999998348</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2705999999999998</v>
+        <v>0.2705999999997084</v>
       </c>
     </row>
     <row r="31">
@@ -17949,16 +17949,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="3">
@@ -17974,13 +17974,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -17993,16 +17993,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.239236599415432</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4318982132553909</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6478473198830863</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -18015,16 +18015,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -18037,16 +18037,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333336</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111116</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666673</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -18540,19 +18540,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981499</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788797</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224486122</v>
       </c>
     </row>
     <row r="30">
@@ -18562,19 +18562,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965966802</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787842</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.39715612244751</v>
       </c>
     </row>
     <row r="31">
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18944,13 +18944,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -18966,7 +18966,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -18985,16 +18985,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -19007,16 +19007,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333336</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111116</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666673</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="7">
@@ -19510,19 +19510,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163264816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965981499</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972788798</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.3971561224486122</v>
       </c>
     </row>
     <row r="30">
@@ -19532,19 +19532,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.371408163265306</v>
+        <v>1.371408163263347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01687414965986394</v>
+        <v>0.01687414965966802</v>
       </c>
       <c r="D30" t="n">
-        <v>1.643081972789115</v>
+        <v>1.643081972787842</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3971561224489794</v>
+        <v>0.39715612244751</v>
       </c>
     </row>
     <row r="31">
